--- a/styleExcel.xlsx
+++ b/styleExcel.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,8 +28,11 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -38,7 +41,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="002B5F75"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CB1B45"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,12 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -480,52 +489,52 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C2" t="n">
-        <v>66</v>
+      <c r="B2" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>326</v>
-      </c>
-      <c r="H2" t="n">
-        <v>65.2</v>
+        <v>257</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>51.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>70</v>
+      <c r="B3" s="3" t="n">
+        <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
         <v>70</v>
       </c>
-      <c r="E3" t="n">
-        <v>33</v>
-      </c>
-      <c r="F3" t="n">
-        <v>48</v>
+      <c r="E3" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>91</v>
       </c>
       <c r="G3" t="n">
-        <v>254</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>50.8</v>
+        <v>319</v>
+      </c>
+      <c r="H3" t="n">
+        <v>63.8</v>
       </c>
     </row>
     <row r="4">
@@ -533,25 +542,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
-      </c>
-      <c r="E4" t="n">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" t="n">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="H4" t="n">
-        <v>75.8</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -559,51 +568,51 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27</v>
-      </c>
-      <c r="E5" t="n">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>59</v>
       </c>
+      <c r="F5" t="n">
+        <v>63</v>
+      </c>
       <c r="G5" t="n">
-        <v>220</v>
+        <v>331</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>75</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>55</v>
+      <c r="B6" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
-      </c>
-      <c r="E6" t="n">
-        <v>83</v>
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>77</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="G6" t="n">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="H6" t="n">
-        <v>66.40000000000001</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="7">
@@ -614,48 +623,48 @@
         <v>46</v>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="E7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>87</v>
       </c>
       <c r="F7" t="n">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="G7" t="n">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="H7" t="n">
-        <v>61.6</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>97</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>53</v>
+      <c r="B8" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="H8" t="n">
-        <v>61.8</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="9">
@@ -663,25 +672,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
-      </c>
-      <c r="E9" t="n">
-        <v>92</v>
-      </c>
-      <c r="F9" t="n">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>95</v>
       </c>
       <c r="G9" t="n">
-        <v>303</v>
-      </c>
-      <c r="H9" t="n">
-        <v>60.6</v>
+        <v>293</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>58.6</v>
       </c>
     </row>
     <row r="10">
@@ -689,51 +698,51 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="D10" t="n">
-        <v>22</v>
-      </c>
-      <c r="E10" t="n">
-        <v>96</v>
+      <c r="E10" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="F10" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>376</v>
-      </c>
-      <c r="H10" t="n">
-        <v>75.2</v>
+        <v>283</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>56.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>50</v>
+      <c r="B11" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="C11" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
-      </c>
-      <c r="F11" t="n">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>83</v>
       </c>
       <c r="G11" t="n">
-        <v>253</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>50.6</v>
+        <v>290</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -744,42 +753,42 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
-      </c>
-      <c r="E12" t="n">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>87</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>280</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>56</v>
+        <v>217</v>
+      </c>
+      <c r="H12" t="n">
+        <v>43.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
         <v>74</v>
       </c>
-      <c r="C13" t="n">
-        <v>74</v>
-      </c>
-      <c r="D13" t="n">
-        <v>34</v>
-      </c>
       <c r="E13" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F13" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
         <v>312</v>
@@ -792,26 +801,26 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>97</v>
+      <c r="B14" s="3" t="n">
+        <v>56</v>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
-      </c>
-      <c r="F14" t="n">
-        <v>37</v>
+        <v>83</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>56</v>
       </c>
       <c r="G14" t="n">
-        <v>266</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>53.2</v>
+        <v>340</v>
+      </c>
+      <c r="H14" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -819,25 +828,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>89</v>
-      </c>
-      <c r="E15" t="n">
-        <v>80</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="F15" t="n">
+        <v>74</v>
       </c>
       <c r="G15" t="n">
-        <v>314</v>
-      </c>
-      <c r="H15" t="n">
-        <v>62.8</v>
+        <v>270</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -845,51 +854,51 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>90</v>
-      </c>
-      <c r="C16" t="n">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>80</v>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F16" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G16" t="n">
-        <v>284</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>56.8</v>
+        <v>282</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>56.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>27</v>
+      <c r="B17" s="2" t="n">
+        <v>77</v>
       </c>
       <c r="C17" t="n">
-        <v>74</v>
-      </c>
-      <c r="D17" t="n">
-        <v>88</v>
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>95</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="F17" t="n">
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>338</v>
-      </c>
-      <c r="H17" t="n">
-        <v>67.59999999999999</v>
+        <v>275</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -897,25 +906,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>45</v>
-      </c>
-      <c r="D18" t="n">
-        <v>90</v>
-      </c>
-      <c r="E18" t="n">
-        <v>91</v>
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>94</v>
       </c>
       <c r="F18" t="n">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>375</v>
-      </c>
-      <c r="H18" t="n">
-        <v>75</v>
+        <v>270</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -923,25 +932,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G19" t="n">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="H19" t="n">
-        <v>46.4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -949,77 +958,77 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>31</v>
-      </c>
-      <c r="C20" t="n">
-        <v>80</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>77</v>
       </c>
       <c r="D20" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F20" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="H20" t="n">
-        <v>59.4</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D21" t="n">
-        <v>93</v>
+      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>98</v>
       </c>
       <c r="E21" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F21" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G21" t="n">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="H21" t="n">
-        <v>75.40000000000001</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="C22" t="n">
         <v>28</v>
       </c>
-      <c r="C22" t="n">
-        <v>93</v>
-      </c>
-      <c r="D22" t="n">
-        <v>61</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>51</v>
+      <c r="D22" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="E22" t="n">
+        <v>33</v>
       </c>
       <c r="F22" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="G22" t="n">
-        <v>324</v>
-      </c>
-      <c r="H22" t="n">
-        <v>64.8</v>
+        <v>251</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>50.2</v>
       </c>
     </row>
     <row r="23">
@@ -1027,77 +1036,77 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C23" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="F23" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="F23" s="3" t="n">
         <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="H23" t="n">
-        <v>73.40000000000001</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>28</v>
-      </c>
-      <c r="C24" t="n">
-        <v>35</v>
+      <c r="B24" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>53</v>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
-      </c>
-      <c r="E24" t="n">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="F24" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G24" t="n">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="H24" t="n">
-        <v>40.2</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>55</v>
+      <c r="B25" s="3" t="n">
+        <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D25" t="n">
-        <v>72</v>
-      </c>
-      <c r="E25" t="n">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>97</v>
       </c>
       <c r="F25" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G25" t="n">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="H25" t="n">
-        <v>64</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1105,25 +1114,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C26" t="n">
-        <v>71</v>
-      </c>
-      <c r="D26" t="n">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="F26" t="n">
-        <v>60</v>
+        <v>79</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>55</v>
       </c>
       <c r="G26" t="n">
-        <v>284</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>56.8</v>
+        <v>306</v>
+      </c>
+      <c r="H26" t="n">
+        <v>61.2</v>
       </c>
     </row>
     <row r="27">
@@ -1131,25 +1140,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>43</v>
-      </c>
-      <c r="C27" t="n">
-        <v>93</v>
-      </c>
-      <c r="D27" t="n">
-        <v>92</v>
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>54</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
-      </c>
-      <c r="F27" t="n">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="G27" t="n">
-        <v>292</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>58.4</v>
+        <v>311</v>
+      </c>
+      <c r="H27" t="n">
+        <v>62.2</v>
       </c>
     </row>
     <row r="28">
@@ -1157,51 +1166,51 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>43</v>
-      </c>
-      <c r="C28" t="n">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>88</v>
       </c>
       <c r="D28" t="n">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E28" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F28" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G28" t="n">
-        <v>303</v>
-      </c>
-      <c r="H28" t="n">
-        <v>60.6</v>
+        <v>285</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" t="n">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="C29" t="n">
-        <v>23</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="E29" t="n">
-        <v>47</v>
+      <c r="D29" t="n">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>91</v>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="G29" t="n">
-        <v>207</v>
+        <v>351</v>
       </c>
       <c r="H29" t="n">
-        <v>41.4</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="30">
@@ -1209,51 +1218,51 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>49</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="C30" t="n">
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E30" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="G30" t="n">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="H30" t="n">
-        <v>44.6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
-        <v>88</v>
+      <c r="B31" s="2" t="n">
+        <v>87</v>
       </c>
       <c r="C31" t="n">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D31" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E31" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G31" t="n">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="H31" t="n">
-        <v>72.8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
@@ -1261,51 +1270,51 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>73</v>
-      </c>
-      <c r="D32" t="n">
-        <v>83</v>
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>55</v>
       </c>
       <c r="E32" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F32" t="n">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G32" t="n">
-        <v>355</v>
-      </c>
-      <c r="H32" t="n">
-        <v>71</v>
+        <v>283</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>56.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
-        <v>24</v>
+      <c r="B33" s="3" t="n">
+        <v>51</v>
       </c>
       <c r="C33" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D33" t="n">
-        <v>33</v>
-      </c>
-      <c r="E33" t="n">
-        <v>86</v>
+        <v>60</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>97</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="G33" t="n">
-        <v>244</v>
+        <v>370</v>
       </c>
       <c r="H33" t="n">
-        <v>48.8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -1313,25 +1322,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>80</v>
-      </c>
-      <c r="C34" t="n">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="D34" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E34" t="n">
-        <v>92</v>
-      </c>
-      <c r="F34" t="n">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>93</v>
       </c>
       <c r="G34" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H34" t="n">
-        <v>68.2</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="35">
@@ -1339,51 +1348,51 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>96</v>
-      </c>
-      <c r="C35" t="n">
-        <v>98</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="E35" t="n">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D35" t="n">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>73</v>
       </c>
       <c r="F35" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G35" t="n">
-        <v>313</v>
+        <v>219</v>
       </c>
       <c r="H35" t="n">
-        <v>62.6</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
-        <v>37</v>
-      </c>
-      <c r="C36" t="n">
-        <v>94</v>
+      <c r="B36" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>89</v>
       </c>
       <c r="D36" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E36" t="n">
-        <v>61</v>
-      </c>
-      <c r="F36" t="n">
-        <v>84</v>
+        <v>38</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>89</v>
       </c>
       <c r="G36" t="n">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="H36" t="n">
-        <v>63.2</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1391,25 +1400,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C37" t="n">
-        <v>48</v>
-      </c>
-      <c r="D37" t="n">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>76</v>
       </c>
       <c r="E37" t="n">
-        <v>40</v>
-      </c>
-      <c r="F37" t="n">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>56</v>
       </c>
       <c r="G37" t="n">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="H37" t="n">
-        <v>66.2</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="38">
@@ -1417,25 +1426,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>99</v>
-      </c>
-      <c r="C38" t="n">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>85</v>
       </c>
       <c r="D38" t="n">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="E38" t="n">
+        <v>24</v>
       </c>
       <c r="F38" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="G38" t="n">
-        <v>280</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>56</v>
+        <v>283</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>56.6</v>
       </c>
     </row>
     <row r="39">
@@ -1443,51 +1452,51 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
+        <v>88</v>
+      </c>
+      <c r="C39" t="n">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="C39" t="n">
-        <v>92</v>
-      </c>
-      <c r="D39" t="n">
-        <v>20</v>
-      </c>
       <c r="E39" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F39" t="n">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="G39" t="n">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="H39" t="n">
-        <v>78.8</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="n">
-        <v>25</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>58</v>
+      <c r="B40" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="C40" t="n">
+        <v>68</v>
       </c>
       <c r="D40" t="n">
-        <v>79</v>
-      </c>
-      <c r="E40" t="n">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>86</v>
       </c>
       <c r="F40" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G40" t="n">
-        <v>231</v>
-      </c>
-      <c r="H40" t="n">
-        <v>46.2</v>
+        <v>272</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>54.4</v>
       </c>
     </row>
     <row r="41">
@@ -1495,25 +1504,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C41" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
-      </c>
-      <c r="E41" t="n">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>55</v>
       </c>
       <c r="F41" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="G41" t="n">
-        <v>295</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>59</v>
+        <v>260</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="42">
@@ -1521,25 +1530,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
+        <v>27</v>
+      </c>
+      <c r="C42" t="n">
         <v>26</v>
       </c>
-      <c r="C42" t="n">
-        <v>45</v>
-      </c>
-      <c r="D42" t="n">
-        <v>24</v>
+      <c r="D42" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="E42" t="n">
-        <v>66</v>
-      </c>
-      <c r="F42" t="n">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>98</v>
       </c>
       <c r="G42" t="n">
-        <v>250</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>50</v>
+        <v>281</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="43">
@@ -1547,25 +1556,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>95</v>
-      </c>
-      <c r="C43" t="n">
-        <v>77</v>
+        <v>33</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>88</v>
       </c>
       <c r="D43" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E43" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F43" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>337</v>
-      </c>
-      <c r="H43" t="n">
-        <v>67.40000000000001</v>
+        <v>260</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="44">
@@ -1573,25 +1582,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C44" t="n">
-        <v>71</v>
-      </c>
-      <c r="D44" t="n">
-        <v>72</v>
-      </c>
-      <c r="E44" t="n">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G44" t="n">
-        <v>265</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>53</v>
+        <v>317</v>
+      </c>
+      <c r="H44" t="n">
+        <v>63.4</v>
       </c>
     </row>
     <row r="45">
@@ -1599,51 +1608,51 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
-      </c>
-      <c r="D45" t="n">
-        <v>29</v>
-      </c>
-      <c r="E45" t="n">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>58</v>
       </c>
       <c r="F45" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G45" t="n">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="H45" t="n">
-        <v>47.8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="C46" t="n">
-        <v>38</v>
+      <c r="B46" t="n">
+        <v>24</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>58</v>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
-      </c>
-      <c r="E46" t="n">
-        <v>45</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="F46" t="n">
+        <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="H46" t="n">
-        <v>44.8</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="47">
@@ -1651,51 +1660,51 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D47" t="n">
-        <v>21</v>
-      </c>
-      <c r="E47" t="n">
-        <v>73</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="F47" t="n">
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="H47" t="n">
-        <v>40.8</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>57</v>
+      <c r="B48" t="n">
+        <v>40</v>
       </c>
       <c r="C48" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D48" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E48" t="n">
-        <v>93</v>
-      </c>
-      <c r="F48" t="n">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>88</v>
       </c>
       <c r="G48" t="n">
-        <v>340</v>
-      </c>
-      <c r="H48" t="n">
-        <v>68</v>
+        <v>252</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>50.4</v>
       </c>
     </row>
     <row r="49">
@@ -1703,25 +1712,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>34</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D49" t="n">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C49" t="n">
+        <v>84</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>90</v>
       </c>
       <c r="E49" t="n">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F49" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="G49" t="n">
-        <v>282</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>56.4</v>
+        <v>247</v>
+      </c>
+      <c r="H49" t="n">
+        <v>49.4</v>
       </c>
     </row>
     <row r="50">
@@ -1729,25 +1738,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C50" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" t="n">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="E50" t="n">
-        <v>35</v>
-      </c>
-      <c r="F50" t="n">
-        <v>97</v>
+        <v>27</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>95</v>
       </c>
       <c r="G50" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H50" t="n">
-        <v>61.2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51">
@@ -1755,25 +1764,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C51" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D51" t="n">
-        <v>21</v>
-      </c>
-      <c r="E51" t="n">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>51</v>
       </c>
       <c r="F51" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G51" t="n">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="H51" t="n">
-        <v>62.2</v>
+        <v>35.6</v>
       </c>
     </row>
   </sheetData>

--- a/styleExcel.xlsx
+++ b/styleExcel.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="3年1班" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
